--- a/xlsx/voc-marathon-top-by-races-count.xlsx
+++ b/xlsx/voc-marathon-top-by-races-count.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -42,24 +42,6 @@
   </si>
   <si>
     <t>Обновлено</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>AlexeiD</t>
-  </si>
-  <si>
-    <t>14 ч. 49 мин. 26 сек.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>lemming</t>
-  </si>
-  <si>
-    <t>14 ч. 33 мин. 26 сек.</t>
   </si>
 </sst>
 </file>
@@ -643,8 +625,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -694,75 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="13" t="n">
-        <v>30297.0</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>533.0</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>475.768</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>1.86459</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>41775.73626157407</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>30252.0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>175.0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>361.0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>252.973</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>4.80411</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>43377.846354166664</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>